--- a/output/season_12.xlsx
+++ b/output/season_12.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -292,12 +292,43 @@
     <t>псв</t>
   </si>
   <si>
+    <t>локомотив</t>
+  </si>
+  <si>
+    <t>санкт
+галлен</t>
+  </si>
+  <si>
+    <t>унион берлин</t>
+  </si>
+  <si>
+    <t>трабзонспор</t>
+  </si>
+  <si>
+    <t>челси</t>
+  </si>
+  <si>
+    <t>рома</t>
+  </si>
+  <si>
+    <t>ростов</t>
+  </si>
+  <si>
+    <t>кёльн</t>
+  </si>
+  <si>
+    <t>витесс</t>
+  </si>
+  <si>
+    <t>спартак</t>
+  </si>
+  <si>
+    <t>интер</t>
+  </si>
+  <si>
     <t>гранада</t>
   </si>
   <si>
-    <t>унион берлин</t>
-  </si>
-  <si>
     <t>галатасарай</t>
   </si>
   <si>
@@ -331,9 +362,6 @@
     <t>боруссия д.</t>
   </si>
   <si>
-    <t>рома</t>
-  </si>
-  <si>
     <t>манчестер юнайтед</t>
   </si>
   <si>
@@ -346,12 +374,6 @@
     <t>ренн</t>
   </si>
   <si>
-    <t>интер</t>
-  </si>
-  <si>
-    <t>челси</t>
-  </si>
-  <si>
     <t>бавария</t>
   </si>
   <si>
@@ -362,6 +384,21 @@
   </si>
   <si>
     <t>олимпиакос</t>
+  </si>
+  <si>
+    <t>цска</t>
+  </si>
+  <si>
+    <t>базель</t>
+  </si>
+  <si>
+    <t>байер</t>
+  </si>
+  <si>
+    <t>сочи</t>
+  </si>
+  <si>
+    <t>аз алкмаар</t>
   </si>
   <si>
     <t>bets</t>
@@ -790,28 +827,28 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -825,28 +862,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -860,28 +897,28 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -895,28 +932,28 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>7</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -930,28 +967,28 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
       <c r="J6">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -965,28 +1002,28 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1000,31 +1037,31 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1035,28 +1072,28 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1070,28 +1107,28 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
       <c r="J10">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1140,28 +1177,28 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>12</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1175,28 +1212,28 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
         <v>14</v>
       </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>9</v>
-      </c>
       <c r="J13">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1210,31 +1247,31 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
       <c r="I14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J14">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1245,28 +1282,28 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1280,28 +1317,28 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D16">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1315,28 +1352,28 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1350,28 +1387,28 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1385,28 +1422,28 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J19">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1420,28 +1457,28 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1455,28 +1492,28 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J21">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1490,28 +1527,28 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="I22">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>6</v>
-      </c>
       <c r="J22">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1525,28 +1562,28 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J23">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1560,28 +1597,28 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J24">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1595,28 +1632,28 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D25">
+        <v>76</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
         <v>48</v>
-      </c>
-      <c r="E25">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>36</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1630,31 +1667,31 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26">
         <v>5</v>
       </c>
-      <c r="H26">
-        <v>8</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
       <c r="J26">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1665,16 +1702,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1683,10 +1720,10 @@
         <v>8</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1700,31 +1737,31 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D28">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J28">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1771,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1789,7 +1826,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1833,7 +1870,7 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1921,7 +1958,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2009,7 +2046,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2053,7 +2090,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2097,7 +2134,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2141,7 +2178,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2317,7 +2354,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2361,7 +2398,7 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2537,7 +2574,7 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2625,7 +2662,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2669,7 +2706,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2757,7 +2794,7 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2801,7 +2838,7 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2845,7 +2882,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2977,7 +3014,7 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3109,7 +3146,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3153,7 +3190,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3197,7 +3234,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3241,7 +3278,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3285,7 +3322,7 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3373,7 +3410,7 @@
         <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3549,7 +3586,7 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3564,7 +3601,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="2">
-        <v>44257.3910214323</v>
+        <v>44257.39102143519</v>
       </c>
       <c r="I42">
         <v>27</v>
@@ -3593,7 +3630,7 @@
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3608,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="H43" s="2">
-        <v>44257.3910215247</v>
+        <v>44257.39102152778</v>
       </c>
       <c r="I43">
         <v>27</v>
@@ -3637,7 +3674,7 @@
         <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3652,7 +3689,7 @@
         <v>5</v>
       </c>
       <c r="H44" s="2">
-        <v>44257.39102160547</v>
+        <v>44257.3910216088</v>
       </c>
       <c r="I44">
         <v>27</v>
@@ -3681,7 +3718,7 @@
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3696,7 +3733,7 @@
         <v>5</v>
       </c>
       <c r="H45" s="2">
-        <v>44257.39102168627</v>
+        <v>44257.39102168981</v>
       </c>
       <c r="I45">
         <v>27</v>
@@ -3740,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="2">
-        <v>44257.39102175553</v>
+        <v>44257.39102175926</v>
       </c>
       <c r="I46">
         <v>27</v>
@@ -3784,7 +3821,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="2">
-        <v>44257.39102183637</v>
+        <v>44257.39102184027</v>
       </c>
       <c r="I47">
         <v>27</v>
@@ -3813,7 +3850,7 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3828,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="2">
-        <v>44257.39102191712</v>
+        <v>44257.3910219213</v>
       </c>
       <c r="I48">
         <v>27</v>
@@ -3872,7 +3909,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="2">
-        <v>44257.39102199793</v>
+        <v>44257.39102200232</v>
       </c>
       <c r="I49">
         <v>27</v>
@@ -3916,7 +3953,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="2">
-        <v>44257.39102207904</v>
+        <v>44257.39102208333</v>
       </c>
       <c r="I50">
         <v>27</v>
@@ -3945,7 +3982,7 @@
         <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3960,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="2">
-        <v>44257.39102215957</v>
+        <v>44257.39102216435</v>
       </c>
       <c r="I51">
         <v>27</v>
@@ -3979,6 +4016,886 @@
       </c>
       <c r="N51">
         <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52" s="2">
+        <v>44265.52013013889</v>
+      </c>
+      <c r="I52">
+        <v>23</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2">
+        <v>44265.52013021991</v>
+      </c>
+      <c r="I53">
+        <v>24</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44265.52013030092</v>
+      </c>
+      <c r="I54">
+        <v>26</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2">
+        <v>44265.52013039352</v>
+      </c>
+      <c r="I55">
+        <v>26</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2">
+        <v>44265.52013048611</v>
+      </c>
+      <c r="I56">
+        <v>26</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2">
+        <v>44265.5201305787</v>
+      </c>
+      <c r="I57">
+        <v>26</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2">
+        <v>44265.52013065972</v>
+      </c>
+      <c r="I58">
+        <v>26</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44265.52013074074</v>
+      </c>
+      <c r="I59">
+        <v>26</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2">
+        <v>44265.52013081018</v>
+      </c>
+      <c r="I60">
+        <v>26</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2">
+        <v>44265.52013087963</v>
+      </c>
+      <c r="I61">
+        <v>26</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+      <c r="H62" s="2">
+        <v>44265.52161453632</v>
+      </c>
+      <c r="I62">
+        <v>24</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="H63" s="2">
+        <v>44265.52161462867</v>
+      </c>
+      <c r="I63">
+        <v>24</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64" s="2">
+        <v>44265.52161472104</v>
+      </c>
+      <c r="I64">
+        <v>24</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>10</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65" s="2">
+        <v>44265.52161481335</v>
+      </c>
+      <c r="I65">
+        <v>25</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="H66" s="2">
+        <v>44265.52161490609</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
+      <c r="H67" s="2">
+        <v>44265.52161498651</v>
+      </c>
+      <c r="I67">
+        <v>26</v>
+      </c>
+      <c r="J67">
+        <v>9</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68" s="2">
+        <v>44265.5216150673</v>
+      </c>
+      <c r="I68">
+        <v>26</v>
+      </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69" s="2">
+        <v>44265.52161514811</v>
+      </c>
+      <c r="I69">
+        <v>26</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+      <c r="H70" s="2">
+        <v>44265.52161521744</v>
+      </c>
+      <c r="I70">
+        <v>26</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>20</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44265.52161529816</v>
+      </c>
+      <c r="I71">
+        <v>26</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>12</v>
+      </c>
+      <c r="L71">
+        <v>10</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3999,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4225,7 +5142,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4233,22 +5150,22 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -4312,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4388,34 +5305,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -4505,10 +5422,10 @@
         <v>47</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4517,19 +5434,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4540,7 +5457,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4581,34 +5498,34 @@
         <v>48</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4619,34 +5536,34 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4657,10 +5574,10 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4669,19 +5586,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4692,7 +5609,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4733,34 +5650,34 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4768,7 +5685,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4844,7 +5761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -4920,7 +5837,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5037,22 +5954,22 @@
         <v>55</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -5061,7 +5978,7 @@
         <v>11</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -5148,7 +6065,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -5224,7 +6141,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -5265,7 +6182,7 @@
         <v>58</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5274,22 +6191,22 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5303,34 +6220,34 @@
         <v>78</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -5452,10 +6369,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5464,22 +6381,22 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5493,7 +6410,7 @@
         <v>62</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5502,25 +6419,25 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>7</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -5531,7 +6448,7 @@
         <v>84</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5540,22 +6457,22 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I35">
         <v>9</v>
       </c>
       <c r="J35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K35">
         <v>9</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5604,7 +6521,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -5645,10 +6562,10 @@
         <v>64</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5657,19 +6574,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -5680,7 +6597,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -5759,7 +6676,7 @@
         <v>67</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5768,22 +6685,22 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -5794,7 +6711,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -5832,10 +6749,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -5844,22 +6761,22 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -5949,7 +6866,7 @@
         <v>69</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5958,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -5970,10 +6887,10 @@
         <v>15</v>
       </c>
       <c r="K46">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -6022,34 +6939,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K48">
         <v>16</v>
       </c>
       <c r="L48">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -6101,10 +7018,10 @@
         <v>85</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6113,22 +7030,22 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -6177,34 +7094,34 @@
         <v>86</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K52">
         <v>4</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -6288,7 +7205,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -6364,7 +7281,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -6440,7 +7357,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -6481,10 +7398,10 @@
         <v>79</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -6493,19 +7410,19 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K60">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6516,13 +7433,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -6531,22 +7448,22 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K61">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -6557,7 +7474,7 @@
         <v>80</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -6566,25 +7483,25 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K62">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -6671,31 +7588,31 @@
         <v>82</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -6706,34 +7623,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -6782,7 +7699,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -6820,34 +7737,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -6858,7 +7775,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -6899,34 +7816,34 @@
         <v>90</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K71">
         <v>5</v>
       </c>
       <c r="L71">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -6934,7 +7851,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -6964,6 +7881,462 @@
         <v>9</v>
       </c>
       <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>24</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>7</v>
+      </c>
+      <c r="L73">
+        <v>17</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>24</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>7</v>
+      </c>
+      <c r="L74">
+        <v>17</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>26</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>8</v>
+      </c>
+      <c r="L75">
+        <v>17</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>26</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>8</v>
+      </c>
+      <c r="L76">
+        <v>17</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>26</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>20</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>24</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>22</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>24</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>14</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>24</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>26</v>
+      </c>
+      <c r="I81">
+        <v>9</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>17</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>26</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>20</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>26</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>26</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>20</v>
+      </c>
+      <c r="L84">
+        <v>6</v>
+      </c>
+      <c r="M84">
         <v>0</v>
       </c>
     </row>

--- a/output/season_12.xlsx
+++ b/output/season_12.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -326,9 +326,48 @@
     <t>интер</t>
   </si>
   <si>
+    <t>боруссия д.</t>
+  </si>
+  <si>
+    <t>ювентус</t>
+  </si>
+  <si>
+    <t>псж</t>
+  </si>
+  <si>
+    <t>манчестер юнайтед</t>
+  </si>
+  <si>
+    <t>славия прага</t>
+  </si>
+  <si>
     <t>гранада</t>
   </si>
   <si>
+    <t>олимпиакос</t>
+  </si>
+  <si>
+    <t>тоттенхэм</t>
+  </si>
+  <si>
+    <t>динамо москва</t>
+  </si>
+  <si>
+    <t>дженоа</t>
+  </si>
+  <si>
+    <t>сельта</t>
+  </si>
+  <si>
+    <t>утрехт</t>
+  </si>
+  <si>
+    <t>заря</t>
+  </si>
+  <si>
+    <t>монако</t>
+  </si>
+  <si>
     <t>галатасарай</t>
   </si>
   <si>
@@ -347,30 +386,12 @@
     <t>герта</t>
   </si>
   <si>
-    <t>ювентус</t>
-  </si>
-  <si>
     <t>фиорентина</t>
   </si>
   <si>
     <t>марсель</t>
   </si>
   <si>
-    <t>псж</t>
-  </si>
-  <si>
-    <t>боруссия д.</t>
-  </si>
-  <si>
-    <t>манчестер юнайтед</t>
-  </si>
-  <si>
-    <t>сельта</t>
-  </si>
-  <si>
-    <t>тоттенхэм</t>
-  </si>
-  <si>
     <t>ренн</t>
   </si>
   <si>
@@ -383,9 +404,6 @@
     <t>зальцбург</t>
   </si>
   <si>
-    <t>олимпиакос</t>
-  </si>
-  <si>
     <t>цска</t>
   </si>
   <si>
@@ -399,6 +417,18 @@
   </si>
   <si>
     <t>аз алкмаар</t>
+  </si>
+  <si>
+    <t>янг бойз</t>
+  </si>
+  <si>
+    <t>рейнджерс</t>
+  </si>
+  <si>
+    <t>мольде</t>
+  </si>
+  <si>
+    <t>шахтёр</t>
   </si>
   <si>
     <t>bets</t>
@@ -827,28 +857,28 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -862,28 +892,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -897,28 +927,28 @@
         <v>12</v>
       </c>
       <c r="C4">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>92</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
         <v>64</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>70</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>52</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -932,28 +962,28 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>70</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
       <c r="J5">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -967,28 +997,28 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="D6">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1002,28 +1032,28 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>8</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1037,28 +1067,28 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D8">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1072,31 +1102,31 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1107,31 +1137,31 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D10">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1177,28 +1207,28 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J12">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1212,31 +1242,31 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J13">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1247,28 +1277,28 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="D14">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>92</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
         <v>14</v>
       </c>
-      <c r="F14">
-        <v>70</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
       <c r="I14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J14">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1282,28 +1312,28 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>30</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J15">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1317,28 +1347,28 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D16">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1352,28 +1382,28 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="D17">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E17">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>92</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>12</v>
-      </c>
       <c r="J17">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1387,28 +1417,28 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>92</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
         <v>10</v>
       </c>
-      <c r="F18">
-        <v>70</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
       <c r="J18">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1422,28 +1452,28 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D19">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>83</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
         <v>53</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>61</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>14</v>
-      </c>
-      <c r="J19">
-        <v>40</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1457,28 +1487,28 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D20">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J20">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1492,28 +1522,28 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="D21">
+        <v>131</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21">
         <v>92</v>
       </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>70</v>
-      </c>
       <c r="G21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J21">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1527,28 +1557,28 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D22">
+        <v>110</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
         <v>92</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>70</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J22">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1562,28 +1592,28 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="D23">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J23">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1597,28 +1627,28 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D24">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J24">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1632,28 +1662,28 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D25">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J25">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1667,28 +1697,28 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D26">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F26">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>11</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J26">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1702,31 +1732,31 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="D27">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J27">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1737,28 +1767,28 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D28">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F28">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J28">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -1771,7 +1801,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1826,7 +1856,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1958,7 +1988,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2046,7 +2076,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2090,7 +2120,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2134,7 +2164,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2178,7 +2208,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2354,7 +2384,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2398,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2574,7 +2604,7 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2662,7 +2692,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2706,7 +2736,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2794,7 +2824,7 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2838,7 +2868,7 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3014,7 +3044,7 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3190,7 +3220,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3234,7 +3264,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3278,7 +3308,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3322,7 +3352,7 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3630,7 +3660,7 @@
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3674,7 +3704,7 @@
         <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3718,7 +3748,7 @@
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3850,7 +3880,7 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3982,7 +4012,7 @@
         <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -4070,7 +4100,7 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4114,7 +4144,7 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4290,7 +4320,7 @@
         <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4378,7 +4408,7 @@
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4466,7 +4496,7 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4481,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="H62" s="2">
-        <v>44265.52161453632</v>
+        <v>44265.52161453704</v>
       </c>
       <c r="I62">
         <v>24</v>
@@ -4525,7 +4555,7 @@
         <v>7</v>
       </c>
       <c r="H63" s="2">
-        <v>44265.52161462867</v>
+        <v>44265.52161462963</v>
       </c>
       <c r="I63">
         <v>24</v>
@@ -4554,7 +4584,7 @@
         <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4569,7 +4599,7 @@
         <v>7</v>
       </c>
       <c r="H64" s="2">
-        <v>44265.52161472104</v>
+        <v>44265.52161472222</v>
       </c>
       <c r="I64">
         <v>24</v>
@@ -4613,7 +4643,7 @@
         <v>7</v>
       </c>
       <c r="H65" s="2">
-        <v>44265.52161481335</v>
+        <v>44265.52161481482</v>
       </c>
       <c r="I65">
         <v>25</v>
@@ -4657,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="H66" s="2">
-        <v>44265.52161490609</v>
+        <v>44265.5216149074</v>
       </c>
       <c r="I66">
         <v>25</v>
@@ -4701,7 +4731,7 @@
         <v>7</v>
       </c>
       <c r="H67" s="2">
-        <v>44265.52161498651</v>
+        <v>44265.52161498843</v>
       </c>
       <c r="I67">
         <v>26</v>
@@ -4730,7 +4760,7 @@
         <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4745,7 +4775,7 @@
         <v>7</v>
       </c>
       <c r="H68" s="2">
-        <v>44265.5216150673</v>
+        <v>44265.52161506945</v>
       </c>
       <c r="I68">
         <v>26</v>
@@ -4774,7 +4804,7 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4789,7 +4819,7 @@
         <v>7</v>
       </c>
       <c r="H69" s="2">
-        <v>44265.52161514811</v>
+        <v>44265.52161515046</v>
       </c>
       <c r="I69">
         <v>26</v>
@@ -4833,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="H70" s="2">
-        <v>44265.52161521744</v>
+        <v>44265.52161521991</v>
       </c>
       <c r="I70">
         <v>26</v>
@@ -4877,7 +4907,7 @@
         <v>7</v>
       </c>
       <c r="H71" s="2">
-        <v>44265.52161529816</v>
+        <v>44265.52161530092</v>
       </c>
       <c r="I71">
         <v>26</v>
@@ -4896,6 +4926,974 @@
       </c>
       <c r="N71">
         <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>8</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44271.39121534722</v>
+      </c>
+      <c r="I72">
+        <v>24</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2">
+        <v>44271.39121545139</v>
+      </c>
+      <c r="I73">
+        <v>24</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>16</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74" s="2">
+        <v>44271.39121555556</v>
+      </c>
+      <c r="I74">
+        <v>26</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+      <c r="H75" s="2">
+        <v>44271.391215625</v>
+      </c>
+      <c r="I75">
+        <v>26</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>12</v>
+      </c>
+      <c r="G76">
+        <v>8</v>
+      </c>
+      <c r="H76" s="2">
+        <v>44271.39121569444</v>
+      </c>
+      <c r="I76">
+        <v>26</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>25</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+      <c r="H77" s="2">
+        <v>44271.39121576389</v>
+      </c>
+      <c r="I77">
+        <v>26</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>10</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78" s="2">
+        <v>44271.39121583333</v>
+      </c>
+      <c r="I78">
+        <v>26</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>12</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79" s="2">
+        <v>44271.39121590278</v>
+      </c>
+      <c r="I79">
+        <v>26</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>12</v>
+      </c>
+      <c r="G80">
+        <v>8</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44271.39121596065</v>
+      </c>
+      <c r="I80">
+        <v>26</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>17</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>12</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="H81" s="2">
+        <v>44271.39121603009</v>
+      </c>
+      <c r="I81">
+        <v>26</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>11</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
+      <c r="H82" s="2">
+        <v>44271.39121611111</v>
+      </c>
+      <c r="I82">
+        <v>26</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>12</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
+      <c r="H83" s="2">
+        <v>44271.39121618056</v>
+      </c>
+      <c r="I83">
+        <v>26</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <v>8</v>
+      </c>
+      <c r="L83">
+        <v>11</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>12</v>
+      </c>
+      <c r="G84">
+        <v>9</v>
+      </c>
+      <c r="H84" s="2">
+        <v>44271.39420547728</v>
+      </c>
+      <c r="I84">
+        <v>26</v>
+      </c>
+      <c r="J84">
+        <v>6</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85">
+        <v>9</v>
+      </c>
+      <c r="H85" s="2">
+        <v>44271.39420556963</v>
+      </c>
+      <c r="I85">
+        <v>26</v>
+      </c>
+      <c r="J85">
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>12</v>
+      </c>
+      <c r="G86">
+        <v>9</v>
+      </c>
+      <c r="H86" s="2">
+        <v>44271.3942056389</v>
+      </c>
+      <c r="I86">
+        <v>26</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>12</v>
+      </c>
+      <c r="G87">
+        <v>9</v>
+      </c>
+      <c r="H87" s="2">
+        <v>44271.39420571976</v>
+      </c>
+      <c r="I87">
+        <v>26</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>11</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88">
+        <v>9</v>
+      </c>
+      <c r="H88" s="2">
+        <v>44271.39420581205</v>
+      </c>
+      <c r="I88">
+        <v>26</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>6</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89">
+        <v>9</v>
+      </c>
+      <c r="H89" s="2">
+        <v>44271.39420589332</v>
+      </c>
+      <c r="I89">
+        <v>26</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>16</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90">
+        <v>9</v>
+      </c>
+      <c r="H90" s="2">
+        <v>44271.3942059621</v>
+      </c>
+      <c r="I90">
+        <v>26</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>9</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91">
+        <v>9</v>
+      </c>
+      <c r="H91" s="2">
+        <v>44271.3942060429</v>
+      </c>
+      <c r="I91">
+        <v>26</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92">
+        <v>9</v>
+      </c>
+      <c r="H92" s="2">
+        <v>44271.39420611214</v>
+      </c>
+      <c r="I92">
+        <v>26</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>8</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93" s="2">
+        <v>44271.39420616988</v>
+      </c>
+      <c r="I93">
+        <v>26</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5142,7 +6140,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5150,22 +6148,22 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -5229,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5244,19 +6242,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -5384,7 +6382,7 @@
         <v>59</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5393,25 +6391,25 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5457,7 +6455,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -5574,31 +6572,31 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
         <v>4</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -5609,7 +6607,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5650,7 +6648,7 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -5659,22 +6657,22 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L14">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -5685,7 +6683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5726,10 +6724,10 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -5738,19 +6736,19 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L16">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -5761,7 +6759,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -5837,7 +6835,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5916,7 +6914,7 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5925,19 +6923,19 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L21">
         <v>47</v>
@@ -6030,10 +7028,10 @@
         <v>56</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -6042,19 +7040,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -6065,7 +7063,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -6106,10 +7104,10 @@
         <v>57</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -6118,10 +7116,10 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -6130,10 +7128,10 @@
         <v>14</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -6141,13 +7139,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -6156,16 +7154,16 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L27">
         <v>52</v>
@@ -6182,10 +7180,10 @@
         <v>58</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -6194,22 +7192,22 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28">
         <v>15</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -6369,7 +7367,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -6521,7 +7519,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -6562,31 +7560,31 @@
         <v>64</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>14</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -6597,34 +7595,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39">
         <v>4</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -6638,7 +7636,7 @@
         <v>65</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -6647,22 +7645,22 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <v>3</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -6676,31 +7674,31 @@
         <v>67</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K41">
         <v>10</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -6711,34 +7709,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -6752,10 +7750,10 @@
         <v>96</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -6764,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I43">
         <v>7</v>
@@ -6773,10 +7771,10 @@
         <v>5</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -6790,34 +7788,34 @@
         <v>68</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -6904,7 +7902,7 @@
         <v>88</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -6913,22 +7911,22 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J47">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K47">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -6939,34 +7937,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K48">
         <v>16</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -7018,10 +8016,10 @@
         <v>85</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -7030,22 +8028,22 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="I50">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J50">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K50">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -7056,31 +8054,31 @@
         <v>72</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I51">
         <v>17</v>
       </c>
       <c r="J51">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K51">
         <v>4</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -7094,10 +8092,10 @@
         <v>86</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -7106,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="I52">
         <v>18</v>
@@ -7115,10 +8113,10 @@
         <v>6</v>
       </c>
       <c r="K52">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="L52">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -7205,34 +8203,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K55">
         <v>13</v>
       </c>
       <c r="L55">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7281,34 +8279,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7357,7 +8355,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -7398,34 +8396,34 @@
         <v>79</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="I60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K60">
         <v>15</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -7512,31 +8510,31 @@
         <v>81</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I63">
         <v>10</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -7550,10 +8548,10 @@
         <v>87</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -7562,19 +8560,19 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I64">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -7699,7 +8697,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -7737,7 +8735,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -7775,7 +8773,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -7851,10 +8849,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -7863,25 +8861,25 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L72">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -7927,7 +8925,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -8003,7 +9001,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -8079,7 +9077,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -8155,7 +9153,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -8234,10 +9232,10 @@
         <v>99</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -8246,19 +9244,19 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I82">
         <v>4</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L82">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -8269,7 +9267,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -8310,10 +9308,10 @@
         <v>100</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -8322,21 +9320,401 @@
         <v>0</v>
       </c>
       <c r="H84">
+        <v>52</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>22</v>
+      </c>
+      <c r="L84">
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
         <v>26</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>20</v>
-      </c>
-      <c r="L84">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>25</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>26</v>
+      </c>
+      <c r="I86">
         <v>6</v>
       </c>
-      <c r="M84">
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>17</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>26</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>17</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>26</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>17</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>26</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>19</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>26</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>14</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>26</v>
+      </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>17</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>26</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>6</v>
+      </c>
+      <c r="L92">
+        <v>19</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>26</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>16</v>
+      </c>
+      <c r="L93">
+        <v>9</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>26</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>9</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>17</v>
+      </c>
+      <c r="M94">
         <v>0</v>
       </c>
     </row>

--- a/output/season_12.xlsx
+++ b/output/season_12.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -368,6 +368,48 @@
     <t>монако</t>
   </si>
   <si>
+    <t>манчестер сити</t>
+  </si>
+  <si>
+    <t>реал мадрид</t>
+  </si>
+  <si>
+    <t>бавария</t>
+  </si>
+  <si>
+    <t>мольде</t>
+  </si>
+  <si>
+    <t>шахтёр</t>
+  </si>
+  <si>
+    <t>рейнджерс</t>
+  </si>
+  <si>
+    <t>янг бойз</t>
+  </si>
+  <si>
+    <t>фулхэм</t>
+  </si>
+  <si>
+    <t>ницца</t>
+  </si>
+  <si>
+    <t>селтик</t>
+  </si>
+  <si>
+    <t>аз алкмар</t>
+  </si>
+  <si>
+    <t>бешикташ</t>
+  </si>
+  <si>
+    <t>фиорентина</t>
+  </si>
+  <si>
+    <t>лион</t>
+  </si>
+  <si>
     <t>галатасарай</t>
   </si>
   <si>
@@ -377,30 +419,18 @@
     <t>айнтрахт</t>
   </si>
   <si>
-    <t>манчестер сити</t>
-  </si>
-  <si>
     <t>андерлехт</t>
   </si>
   <si>
     <t>герта</t>
   </si>
   <si>
-    <t>фиорентина</t>
-  </si>
-  <si>
     <t>марсель</t>
   </si>
   <si>
     <t>ренн</t>
   </si>
   <si>
-    <t>бавария</t>
-  </si>
-  <si>
-    <t>реал мадрид</t>
-  </si>
-  <si>
     <t>зальцбург</t>
   </si>
   <si>
@@ -419,16 +449,7 @@
     <t>аз алкмаар</t>
   </si>
   <si>
-    <t>янг бойз</t>
-  </si>
-  <si>
-    <t>рейнджерс</t>
-  </si>
-  <si>
-    <t>мольде</t>
-  </si>
-  <si>
-    <t>шахтёр</t>
+    <t>лидс</t>
   </si>
   <si>
     <t>bets</t>
@@ -857,28 +878,28 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -892,28 +913,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -927,31 +948,31 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>114</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
         <v>77</v>
       </c>
-      <c r="E4">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>92</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>64</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -962,28 +983,28 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J5">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -997,28 +1018,28 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>15</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J6">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1032,28 +1053,28 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1067,28 +1088,28 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1102,31 +1123,31 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="D9">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J9">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1137,28 +1158,28 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D10">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1207,28 +1228,28 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D12">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J12">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1242,28 +1263,28 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="D13">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>8</v>
       </c>
       <c r="I13">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J13">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1277,28 +1298,28 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D14">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J14">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1312,28 +1333,28 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="D15">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J15">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1347,28 +1368,28 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D16">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J16">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1382,28 +1403,28 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D17">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1417,28 +1438,28 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D18">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J18">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1452,28 +1473,28 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="D19">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E19">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>105</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
         <v>22</v>
       </c>
-      <c r="F19">
-        <v>83</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-      <c r="I19">
-        <v>17</v>
-      </c>
       <c r="J19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1487,31 +1508,31 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="D20">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>113</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20">
         <v>18</v>
       </c>
-      <c r="F20">
-        <v>91</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>14</v>
-      </c>
-      <c r="I20">
-        <v>15</v>
-      </c>
       <c r="J20">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1522,28 +1543,28 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="D21">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E21">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F21">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J21">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1557,28 +1578,28 @@
         <v>30</v>
       </c>
       <c r="C22">
+        <v>152</v>
+      </c>
+      <c r="D22">
         <v>128</v>
       </c>
-      <c r="D22">
-        <v>110</v>
-      </c>
       <c r="E22">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
         <v>19</v>
       </c>
-      <c r="I22">
-        <v>14</v>
-      </c>
       <c r="J22">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1592,28 +1613,28 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="D23">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J23">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1627,28 +1648,28 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="D24">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F24">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I24">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1662,28 +1683,28 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D25">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J25">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1697,28 +1718,28 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D26">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J26">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1732,28 +1753,28 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D27">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F27">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J27">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1767,31 +1788,31 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D28">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E28">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J28">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,7 +2009,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2076,7 +2097,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2120,7 +2141,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2164,7 +2185,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2208,7 +2229,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2384,7 +2405,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2604,7 +2625,7 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2692,7 +2713,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3220,7 +3241,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3352,7 +3373,7 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3660,7 +3681,7 @@
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3704,7 +3725,7 @@
         <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3748,7 +3769,7 @@
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3880,7 +3901,7 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4100,7 +4121,7 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4144,7 +4165,7 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4320,7 +4341,7 @@
         <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4496,7 +4517,7 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4584,7 +4605,7 @@
         <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4760,7 +4781,7 @@
         <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4804,7 +4825,7 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -5112,7 +5133,7 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -5244,7 +5265,7 @@
         <v>106</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -5288,7 +5309,7 @@
         <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -5376,7 +5397,7 @@
         <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -5479,7 +5500,7 @@
         <v>9</v>
       </c>
       <c r="H84" s="2">
-        <v>44271.39420547728</v>
+        <v>44271.39420547453</v>
       </c>
       <c r="I84">
         <v>26</v>
@@ -5523,7 +5544,7 @@
         <v>9</v>
       </c>
       <c r="H85" s="2">
-        <v>44271.39420556963</v>
+        <v>44271.39420556713</v>
       </c>
       <c r="I85">
         <v>26</v>
@@ -5567,7 +5588,7 @@
         <v>9</v>
       </c>
       <c r="H86" s="2">
-        <v>44271.3942056389</v>
+        <v>44271.39420563658</v>
       </c>
       <c r="I86">
         <v>26</v>
@@ -5611,7 +5632,7 @@
         <v>9</v>
       </c>
       <c r="H87" s="2">
-        <v>44271.39420571976</v>
+        <v>44271.3942057176</v>
       </c>
       <c r="I87">
         <v>26</v>
@@ -5655,7 +5676,7 @@
         <v>9</v>
       </c>
       <c r="H88" s="2">
-        <v>44271.39420581205</v>
+        <v>44271.39420581018</v>
       </c>
       <c r="I88">
         <v>26</v>
@@ -5699,7 +5720,7 @@
         <v>9</v>
       </c>
       <c r="H89" s="2">
-        <v>44271.39420589332</v>
+        <v>44271.39420589121</v>
       </c>
       <c r="I89">
         <v>26</v>
@@ -5743,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="H90" s="2">
-        <v>44271.3942059621</v>
+        <v>44271.39420596065</v>
       </c>
       <c r="I90">
         <v>26</v>
@@ -5787,7 +5808,7 @@
         <v>9</v>
       </c>
       <c r="H91" s="2">
-        <v>44271.3942060429</v>
+        <v>44271.39420604167</v>
       </c>
       <c r="I91">
         <v>26</v>
@@ -5831,7 +5852,7 @@
         <v>9</v>
       </c>
       <c r="H92" s="2">
-        <v>44271.39420611214</v>
+        <v>44271.39420611111</v>
       </c>
       <c r="I92">
         <v>26</v>
@@ -5875,7 +5896,7 @@
         <v>9</v>
       </c>
       <c r="H93" s="2">
-        <v>44271.39420616988</v>
+        <v>44271.39420616898</v>
       </c>
       <c r="I93">
         <v>26</v>
@@ -5894,6 +5915,974 @@
       </c>
       <c r="N93">
         <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>10</v>
+      </c>
+      <c r="H94" s="2">
+        <v>44281.67474994213</v>
+      </c>
+      <c r="I94">
+        <v>24</v>
+      </c>
+      <c r="J94">
+        <v>8</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>11</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95" s="2">
+        <v>44281.6747500463</v>
+      </c>
+      <c r="I95">
+        <v>24</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>9</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96" s="2">
+        <v>44281.67475012731</v>
+      </c>
+      <c r="I96">
+        <v>26</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>24</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97">
+        <v>10</v>
+      </c>
+      <c r="H97" s="2">
+        <v>44281.67475019676</v>
+      </c>
+      <c r="I97">
+        <v>26</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>11</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>12</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+      <c r="H98" s="2">
+        <v>44281.67475028935</v>
+      </c>
+      <c r="I98">
+        <v>26</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+      <c r="G99">
+        <v>10</v>
+      </c>
+      <c r="H99" s="2">
+        <v>44281.67475037037</v>
+      </c>
+      <c r="I99">
+        <v>26</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100">
+        <v>10</v>
+      </c>
+      <c r="H100" s="2">
+        <v>44281.67475043982</v>
+      </c>
+      <c r="I100">
+        <v>26</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101" s="2">
+        <v>44281.67475050926</v>
+      </c>
+      <c r="I101">
+        <v>26</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102">
+        <v>10</v>
+      </c>
+      <c r="H102" s="2">
+        <v>44281.67475057871</v>
+      </c>
+      <c r="I102">
+        <v>26</v>
+      </c>
+      <c r="J102">
+        <v>10</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>14</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103" s="2">
+        <v>44281.67475064815</v>
+      </c>
+      <c r="I103">
+        <v>26</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>7</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104">
+        <v>10</v>
+      </c>
+      <c r="H104" s="2">
+        <v>44281.67475071759</v>
+      </c>
+      <c r="I104">
+        <v>26</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="H105" s="2">
+        <v>44281.67475078704</v>
+      </c>
+      <c r="I105">
+        <v>26</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>14</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+      <c r="H106" s="2">
+        <v>44281.67613371718</v>
+      </c>
+      <c r="I106">
+        <v>26</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>8</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107">
+        <v>11</v>
+      </c>
+      <c r="H107" s="2">
+        <v>44281.67613380952</v>
+      </c>
+      <c r="I107">
+        <v>23</v>
+      </c>
+      <c r="J107">
+        <v>5</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108">
+        <v>11</v>
+      </c>
+      <c r="H108" s="2">
+        <v>44281.67613390223</v>
+      </c>
+      <c r="I108">
+        <v>25</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109">
+        <v>11</v>
+      </c>
+      <c r="H109" s="2">
+        <v>44281.67613398279</v>
+      </c>
+      <c r="I109">
+        <v>26</v>
+      </c>
+      <c r="J109">
+        <v>8</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>12</v>
+      </c>
+      <c r="G110">
+        <v>11</v>
+      </c>
+      <c r="H110" s="2">
+        <v>44281.6761340635</v>
+      </c>
+      <c r="I110">
+        <v>26</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>7</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>12</v>
+      </c>
+      <c r="G111">
+        <v>11</v>
+      </c>
+      <c r="H111" s="2">
+        <v>44281.67613414449</v>
+      </c>
+      <c r="I111">
+        <v>26</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112">
+        <v>11</v>
+      </c>
+      <c r="H112" s="2">
+        <v>44281.67613421354</v>
+      </c>
+      <c r="I112">
+        <v>26</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" t="s">
+        <v>79</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113">
+        <v>11</v>
+      </c>
+      <c r="H113" s="2">
+        <v>44281.67613429435</v>
+      </c>
+      <c r="I113">
+        <v>25</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>15</v>
+      </c>
+      <c r="L113">
+        <v>8</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114">
+        <v>11</v>
+      </c>
+      <c r="H114" s="2">
+        <v>44281.67613435206</v>
+      </c>
+      <c r="I114">
+        <v>26</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>10</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115">
+        <v>11</v>
+      </c>
+      <c r="H115" s="2">
+        <v>44281.67613442131</v>
+      </c>
+      <c r="I115">
+        <v>26</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+      <c r="L115">
+        <v>13</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5914,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6140,7 +7129,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6148,22 +7137,22 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -6230,7 +7219,7 @@
         <v>107</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6239,13 +7228,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -6254,10 +7243,10 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6420,31 +7409,31 @@
         <v>47</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -6455,7 +7444,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -6607,7 +7596,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6683,7 +7672,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6759,13 +7748,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6774,19 +7763,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
         <v>19</v>
-      </c>
-      <c r="L17">
-        <v>17</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -6835,7 +7824,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -6876,7 +7865,7 @@
         <v>53</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -6885,22 +7874,22 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <v>8</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -7063,7 +8052,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7104,10 +8093,10 @@
         <v>57</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -7116,19 +8105,19 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>6</v>
       </c>
       <c r="K26">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M26">
         <v>2</v>
@@ -7367,10 +8356,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7379,22 +8368,22 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I33">
         <v>11</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -7446,7 +8435,7 @@
         <v>84</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -7455,22 +8444,22 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K35">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -7519,10 +8508,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -7531,10 +8520,10 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -7543,10 +8532,10 @@
         <v>11</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -7598,10 +8587,10 @@
         <v>104</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -7610,19 +8599,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I39">
         <v>4</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -7750,31 +8739,31 @@
         <v>96</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K43">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -7788,7 +8777,7 @@
         <v>68</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -7797,22 +8786,22 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="I44">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L44">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M44">
         <v>2</v>
@@ -7902,10 +8891,10 @@
         <v>88</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -7914,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="I47">
         <v>9</v>
@@ -7923,10 +8912,10 @@
         <v>23</v>
       </c>
       <c r="K47">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -7940,10 +8929,10 @@
         <v>105</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -7952,19 +8941,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K48">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L48">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -7978,10 +8967,10 @@
         <v>71</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -7990,19 +8979,19 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <v>23</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -8016,31 +9005,31 @@
         <v>85</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="I50">
         <v>13</v>
       </c>
       <c r="J50">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K50">
         <v>18</v>
       </c>
       <c r="L50">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -8092,11 +9081,11 @@
         <v>86</v>
       </c>
       <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
         <v>4</v>
       </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
       <c r="F52">
         <v>1</v>
       </c>
@@ -8104,19 +9093,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="I52">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K52">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -8244,31 +9233,31 @@
         <v>76</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -8282,7 +9271,7 @@
         <v>109</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -8291,10 +9280,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="I57">
         <v>12</v>
@@ -8303,10 +9292,10 @@
         <v>10</v>
       </c>
       <c r="K57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L57">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -8355,7 +9344,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -8396,31 +9385,31 @@
         <v>79</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J60">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K60">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L60">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -8472,7 +9461,7 @@
         <v>80</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -8481,25 +9470,25 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K62">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8548,10 +9537,10 @@
         <v>87</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -8560,19 +9549,19 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="I64">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K64">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="L64">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -8586,7 +9575,7 @@
         <v>82</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -8595,25 +9584,25 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>11</v>
+      </c>
+      <c r="L65">
         <v>53</v>
       </c>
-      <c r="I65">
-        <v>8</v>
-      </c>
-      <c r="J65">
-        <v>5</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>40</v>
-      </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -8624,10 +9613,10 @@
         <v>95</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -8636,22 +9625,22 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66">
+        <v>12</v>
+      </c>
+      <c r="K66">
         <v>11</v>
       </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
       <c r="L66">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -8662,7 +9651,7 @@
         <v>83</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -8671,25 +9660,25 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -8697,13 +9686,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -8712,22 +9701,22 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="L68">
         <v>4</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -8735,13 +9724,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -8750,22 +9739,22 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L69">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -8773,7 +9762,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -8814,7 +9803,7 @@
         <v>90</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -8823,25 +9812,25 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K71">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L71">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -8852,10 +9841,10 @@
         <v>108</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -8864,7 +9853,7 @@
         <v>2</v>
       </c>
       <c r="H72">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I72">
         <v>12</v>
@@ -8876,7 +9865,7 @@
         <v>16</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -8925,7 +9914,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9001,7 +9990,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -9077,7 +10066,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -9153,7 +10142,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -9267,7 +10256,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -9343,10 +10332,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -9355,22 +10344,22 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K85">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -9384,10 +10373,10 @@
         <v>106</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -9396,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I86">
         <v>6</v>
@@ -9405,10 +10394,10 @@
         <v>3</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -9419,34 +10408,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -9457,13 +10446,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -9472,10 +10461,10 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -9484,10 +10473,10 @@
         <v>17</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -9495,10 +10484,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -9507,22 +10496,22 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L89">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9715,6 +10704,272 @@
         <v>17</v>
       </c>
       <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>23</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>12</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>23</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <v>12</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>25</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>24</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>26</v>
+      </c>
+      <c r="I98">
+        <v>8</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>17</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>26</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
+      </c>
+      <c r="L99">
+        <v>16</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>26</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>21</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>26</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101">
+        <v>13</v>
+      </c>
+      <c r="L101">
+        <v>6</v>
+      </c>
+      <c r="M101">
         <v>0</v>
       </c>
     </row>

--- a/output/season_12.xlsx
+++ b/output/season_12.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -410,15 +410,24 @@
     <t>лион</t>
   </si>
   <si>
+    <t>рубин</t>
+  </si>
+  <si>
+    <t>нант</t>
+  </si>
+  <si>
+    <t>стандард</t>
+  </si>
+  <si>
+    <t>айнтрахт</t>
+  </si>
+  <si>
     <t>галатасарай</t>
   </si>
   <si>
     <t>верона</t>
   </si>
   <si>
-    <t>айнтрахт</t>
-  </si>
-  <si>
     <t>андерлехт</t>
   </si>
   <si>
@@ -450,6 +459,15 @@
   </si>
   <si>
     <t>лидс</t>
+  </si>
+  <si>
+    <t>гент</t>
+  </si>
+  <si>
+    <t>фейеноорд</t>
+  </si>
+  <si>
+    <t>эвертон</t>
   </si>
   <si>
     <t>bets</t>
@@ -878,28 +896,28 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J2">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -913,28 +931,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D3">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J3">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -948,28 +966,28 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F4">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -983,28 +1001,28 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1018,28 +1036,28 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="E6">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1053,28 +1071,28 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F7">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1088,28 +1106,28 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="D8">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1123,31 +1141,31 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="D9">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J9">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1158,28 +1176,28 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="D10">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J10">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1228,28 +1246,28 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D12">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J12">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1263,28 +1281,28 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="D13">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F13">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J13">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1298,28 +1316,28 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="D14">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="E14">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>150</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
         <v>24</v>
       </c>
-      <c r="F14">
-        <v>114</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>18</v>
-      </c>
       <c r="I14">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1333,28 +1351,28 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="D15">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="E15">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I15">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J15">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1368,31 +1386,31 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="D16">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J16">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1403,28 +1421,28 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="D17">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E17">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
         <v>32</v>
       </c>
-      <c r="F17">
-        <v>114</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="I17">
-        <v>25</v>
-      </c>
       <c r="J17">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1438,28 +1456,28 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="D18">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H18">
+        <v>25</v>
+      </c>
+      <c r="I18">
         <v>18</v>
       </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
       <c r="J18">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1473,28 +1491,28 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="D19">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1508,28 +1526,28 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="D20">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I20">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J20">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1543,28 +1561,28 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="D21">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="E21">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F21">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J21">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1578,28 +1596,28 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="D22">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J22">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1613,28 +1631,28 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="D23">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="E23">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F23">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
         <v>17</v>
       </c>
-      <c r="H23">
-        <v>15</v>
-      </c>
       <c r="I23">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J23">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1648,28 +1666,28 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="D24">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F24">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I24">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J24">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1683,28 +1701,28 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="D25">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F25">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J25">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1718,28 +1736,28 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="D26">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J26">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1753,28 +1771,28 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="D27">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E27">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F27">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I27">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J27">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1788,28 +1806,28 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D28">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="E28">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I28">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J28">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1822,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2009,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2097,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2141,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2229,7 +2247,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2405,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2713,7 +2731,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3241,7 +3259,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3373,7 +3391,7 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3901,7 +3919,7 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4121,7 +4139,7 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4165,7 +4183,7 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4517,7 +4535,7 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4605,7 +4623,7 @@
         <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4825,7 +4843,7 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -6468,7 +6486,7 @@
         <v>11</v>
       </c>
       <c r="H106" s="2">
-        <v>44281.67613371718</v>
+        <v>44281.67613371528</v>
       </c>
       <c r="I106">
         <v>26</v>
@@ -6497,7 +6515,7 @@
         <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -6512,7 +6530,7 @@
         <v>11</v>
       </c>
       <c r="H107" s="2">
-        <v>44281.67613380952</v>
+        <v>44281.67613380787</v>
       </c>
       <c r="I107">
         <v>23</v>
@@ -6541,7 +6559,7 @@
         <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -6556,7 +6574,7 @@
         <v>11</v>
       </c>
       <c r="H108" s="2">
-        <v>44281.67613390223</v>
+        <v>44281.67613390047</v>
       </c>
       <c r="I108">
         <v>25</v>
@@ -6600,7 +6618,7 @@
         <v>11</v>
       </c>
       <c r="H109" s="2">
-        <v>44281.67613398279</v>
+        <v>44281.67613398148</v>
       </c>
       <c r="I109">
         <v>26</v>
@@ -6644,7 +6662,7 @@
         <v>11</v>
       </c>
       <c r="H110" s="2">
-        <v>44281.6761340635</v>
+        <v>44281.6761340625</v>
       </c>
       <c r="I110">
         <v>26</v>
@@ -6688,7 +6706,7 @@
         <v>11</v>
       </c>
       <c r="H111" s="2">
-        <v>44281.67613414449</v>
+        <v>44281.67613414352</v>
       </c>
       <c r="I111">
         <v>26</v>
@@ -6732,7 +6750,7 @@
         <v>11</v>
       </c>
       <c r="H112" s="2">
-        <v>44281.67613421354</v>
+        <v>44281.67613421296</v>
       </c>
       <c r="I112">
         <v>26</v>
@@ -6776,7 +6794,7 @@
         <v>11</v>
       </c>
       <c r="H113" s="2">
-        <v>44281.67613429435</v>
+        <v>44281.67613429398</v>
       </c>
       <c r="I113">
         <v>25</v>
@@ -6820,7 +6838,7 @@
         <v>11</v>
       </c>
       <c r="H114" s="2">
-        <v>44281.67613435206</v>
+        <v>44281.67613435185</v>
       </c>
       <c r="I114">
         <v>26</v>
@@ -6864,7 +6882,7 @@
         <v>11</v>
       </c>
       <c r="H115" s="2">
-        <v>44281.67613442131</v>
+        <v>44281.67613442129</v>
       </c>
       <c r="I115">
         <v>26</v>
@@ -6883,6 +6901,1590 @@
       </c>
       <c r="N115">
         <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" t="s">
+        <v>87</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116">
+        <v>12</v>
+      </c>
+      <c r="H116" s="2">
+        <v>44305.3267165162</v>
+      </c>
+      <c r="I116">
+        <v>26</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>14</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117">
+        <v>12</v>
+      </c>
+      <c r="H117" s="2">
+        <v>44305.32671658565</v>
+      </c>
+      <c r="I117">
+        <v>25</v>
+      </c>
+      <c r="J117">
+        <v>12</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118">
+        <v>12</v>
+      </c>
+      <c r="H118" s="2">
+        <v>44305.32671666667</v>
+      </c>
+      <c r="I118">
+        <v>26</v>
+      </c>
+      <c r="J118">
+        <v>6</v>
+      </c>
+      <c r="K118">
+        <v>9</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119">
+        <v>12</v>
+      </c>
+      <c r="H119" s="2">
+        <v>44305.32671673611</v>
+      </c>
+      <c r="I119">
+        <v>26</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120">
+        <v>12</v>
+      </c>
+      <c r="H120" s="2">
+        <v>44305.32671680555</v>
+      </c>
+      <c r="I120">
+        <v>26</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>17</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121">
+        <v>12</v>
+      </c>
+      <c r="H121" s="2">
+        <v>44305.32671688657</v>
+      </c>
+      <c r="I121">
+        <v>26</v>
+      </c>
+      <c r="J121">
+        <v>5</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>93</v>
+      </c>
+      <c r="C122" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>12</v>
+      </c>
+      <c r="G122">
+        <v>12</v>
+      </c>
+      <c r="H122" s="2">
+        <v>44305.32671694444</v>
+      </c>
+      <c r="I122">
+        <v>26</v>
+      </c>
+      <c r="J122">
+        <v>6</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>12</v>
+      </c>
+      <c r="G123">
+        <v>12</v>
+      </c>
+      <c r="H123" s="2">
+        <v>44305.32671701389</v>
+      </c>
+      <c r="I123">
+        <v>26</v>
+      </c>
+      <c r="J123">
+        <v>5</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>12</v>
+      </c>
+      <c r="G124">
+        <v>12</v>
+      </c>
+      <c r="H124" s="2">
+        <v>44305.32671707176</v>
+      </c>
+      <c r="I124">
+        <v>26</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>12</v>
+      </c>
+      <c r="G125">
+        <v>12</v>
+      </c>
+      <c r="H125" s="2">
+        <v>44305.3267171412</v>
+      </c>
+      <c r="I125">
+        <v>26</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>8</v>
+      </c>
+      <c r="L125">
+        <v>4</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>12</v>
+      </c>
+      <c r="G126">
+        <v>13</v>
+      </c>
+      <c r="H126" s="2">
+        <v>44305.32808405093</v>
+      </c>
+      <c r="I126">
+        <v>23</v>
+      </c>
+      <c r="J126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>18</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>12</v>
+      </c>
+      <c r="G127">
+        <v>13</v>
+      </c>
+      <c r="H127" s="2">
+        <v>44305.32808415509</v>
+      </c>
+      <c r="I127">
+        <v>23</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>5</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>12</v>
+      </c>
+      <c r="G128">
+        <v>13</v>
+      </c>
+      <c r="H128" s="2">
+        <v>44305.32808423611</v>
+      </c>
+      <c r="I128">
+        <v>26</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>12</v>
+      </c>
+      <c r="G129">
+        <v>13</v>
+      </c>
+      <c r="H129" s="2">
+        <v>44305.32808430555</v>
+      </c>
+      <c r="I129">
+        <v>26</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>12</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" t="s">
+        <v>106</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>12</v>
+      </c>
+      <c r="G130">
+        <v>13</v>
+      </c>
+      <c r="H130" s="2">
+        <v>44305.32808438657</v>
+      </c>
+      <c r="I130">
+        <v>26</v>
+      </c>
+      <c r="J130">
+        <v>3</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" t="s">
+        <v>96</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>12</v>
+      </c>
+      <c r="G131">
+        <v>13</v>
+      </c>
+      <c r="H131" s="2">
+        <v>44305.32808446759</v>
+      </c>
+      <c r="I131">
+        <v>26</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" t="s">
+        <v>105</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>12</v>
+      </c>
+      <c r="G132">
+        <v>13</v>
+      </c>
+      <c r="H132" s="2">
+        <v>44305.32808454861</v>
+      </c>
+      <c r="I132">
+        <v>26</v>
+      </c>
+      <c r="J132">
+        <v>12</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>8</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>12</v>
+      </c>
+      <c r="G133">
+        <v>13</v>
+      </c>
+      <c r="H133" s="2">
+        <v>44305.32808460648</v>
+      </c>
+      <c r="I133">
+        <v>26</v>
+      </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="K133">
+        <v>12</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>62</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>12</v>
+      </c>
+      <c r="G134">
+        <v>14</v>
+      </c>
+      <c r="H134" s="2">
+        <v>44305.32877800926</v>
+      </c>
+      <c r="I134">
+        <v>22</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>10</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>97</v>
+      </c>
+      <c r="C135" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>12</v>
+      </c>
+      <c r="G135">
+        <v>14</v>
+      </c>
+      <c r="H135" s="2">
+        <v>44305.32877809028</v>
+      </c>
+      <c r="I135">
+        <v>24</v>
+      </c>
+      <c r="J135">
+        <v>5</v>
+      </c>
+      <c r="K135">
+        <v>8</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>12</v>
+      </c>
+      <c r="G136">
+        <v>14</v>
+      </c>
+      <c r="H136" s="2">
+        <v>44305.32877818287</v>
+      </c>
+      <c r="I136">
+        <v>24</v>
+      </c>
+      <c r="J136">
+        <v>6</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>77</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>12</v>
+      </c>
+      <c r="G137">
+        <v>14</v>
+      </c>
+      <c r="H137" s="2">
+        <v>44305.32877827546</v>
+      </c>
+      <c r="I137">
+        <v>24</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>10</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>12</v>
+      </c>
+      <c r="G138">
+        <v>14</v>
+      </c>
+      <c r="H138" s="2">
+        <v>44305.3287783912</v>
+      </c>
+      <c r="I138">
+        <v>24</v>
+      </c>
+      <c r="J138">
+        <v>10</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>12</v>
+      </c>
+      <c r="G139">
+        <v>14</v>
+      </c>
+      <c r="H139" s="2">
+        <v>44305.3287784838</v>
+      </c>
+      <c r="I139">
+        <v>24</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" t="s">
+        <v>105</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>12</v>
+      </c>
+      <c r="G140">
+        <v>14</v>
+      </c>
+      <c r="H140" s="2">
+        <v>44305.32877855324</v>
+      </c>
+      <c r="I140">
+        <v>24</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>12</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>91</v>
+      </c>
+      <c r="C141" t="s">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>12</v>
+      </c>
+      <c r="G141">
+        <v>14</v>
+      </c>
+      <c r="H141" s="2">
+        <v>44305.32877861111</v>
+      </c>
+      <c r="I141">
+        <v>23</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>12</v>
+      </c>
+      <c r="G142">
+        <v>14</v>
+      </c>
+      <c r="H142" s="2">
+        <v>44305.32877868055</v>
+      </c>
+      <c r="I142">
+        <v>24</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>10</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>12</v>
+      </c>
+      <c r="G143">
+        <v>14</v>
+      </c>
+      <c r="H143" s="2">
+        <v>44305.32877875</v>
+      </c>
+      <c r="I143">
+        <v>24</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>4</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>104</v>
+      </c>
+      <c r="C144" t="s">
+        <v>118</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>12</v>
+      </c>
+      <c r="G144">
+        <v>15</v>
+      </c>
+      <c r="H144" s="2">
+        <v>44305.3295361453</v>
+      </c>
+      <c r="I144">
+        <v>25</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>6</v>
+      </c>
+      <c r="L144">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>12</v>
+      </c>
+      <c r="G145">
+        <v>15</v>
+      </c>
+      <c r="H145" s="2">
+        <v>44305.32953622564</v>
+      </c>
+      <c r="I145">
+        <v>25</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" t="s">
+        <v>116</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>12</v>
+      </c>
+      <c r="G146">
+        <v>15</v>
+      </c>
+      <c r="H146" s="2">
+        <v>44305.32953631814</v>
+      </c>
+      <c r="I146">
+        <v>25</v>
+      </c>
+      <c r="J146">
+        <v>11</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" t="s">
+        <v>117</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>12</v>
+      </c>
+      <c r="G147">
+        <v>15</v>
+      </c>
+      <c r="H147" s="2">
+        <v>44305.32953638757</v>
+      </c>
+      <c r="I147">
+        <v>25</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>8</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" t="s">
+        <v>88</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>12</v>
+      </c>
+      <c r="G148">
+        <v>15</v>
+      </c>
+      <c r="H148" s="2">
+        <v>44305.32953649113</v>
+      </c>
+      <c r="I148">
+        <v>25</v>
+      </c>
+      <c r="J148">
+        <v>5</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>12</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>105</v>
+      </c>
+      <c r="C149" t="s">
+        <v>107</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>12</v>
+      </c>
+      <c r="G149">
+        <v>15</v>
+      </c>
+      <c r="H149" s="2">
+        <v>44305.32953657224</v>
+      </c>
+      <c r="I149">
+        <v>25</v>
+      </c>
+      <c r="J149">
+        <v>10</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>12</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>96</v>
+      </c>
+      <c r="C150" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>12</v>
+      </c>
+      <c r="G150">
+        <v>15</v>
+      </c>
+      <c r="H150" s="2">
+        <v>44305.32953662999</v>
+      </c>
+      <c r="I150">
+        <v>25</v>
+      </c>
+      <c r="J150">
+        <v>9</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151" t="s">
+        <v>85</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151">
+        <v>12</v>
+      </c>
+      <c r="G151">
+        <v>15</v>
+      </c>
+      <c r="H151" s="2">
+        <v>44305.32953671081</v>
+      </c>
+      <c r="I151">
+        <v>25</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>16</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6903,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7129,7 +8731,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7137,22 +8739,22 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -7219,7 +8821,7 @@
         <v>107</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7228,22 +8830,22 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -7295,22 +8897,22 @@
         <v>93</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -7319,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -7444,7 +9046,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -7485,7 +9087,7 @@
         <v>48</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7494,22 +9096,22 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -7523,7 +9125,7 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -7532,22 +9134,22 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="I11">
         <v>20</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -7596,7 +9198,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -7637,31 +9239,31 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="I14">
         <v>14</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <v>35</v>
       </c>
       <c r="L14">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -7672,13 +9274,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -7687,19 +9289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -7713,31 +9315,31 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K16">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -7751,10 +9353,10 @@
         <v>116</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -7763,19 +9365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="I17">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -7824,7 +9426,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -7903,31 +9505,31 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K21">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -8052,25 +9654,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -8079,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -8169,31 +9771,31 @@
         <v>58</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I28">
         <v>9</v>
       </c>
       <c r="J28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K28">
         <v>5</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -8359,31 +9961,31 @@
         <v>128</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="I33">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K33">
         <v>11</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -8397,7 +9999,7 @@
         <v>62</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -8406,22 +10008,22 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -8508,34 +10110,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -8549,7 +10151,7 @@
         <v>64</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -8558,22 +10160,22 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L38">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -8587,34 +10189,34 @@
         <v>104</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K39">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -8625,7 +10227,7 @@
         <v>65</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -8634,22 +10236,22 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I40">
         <v>4</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K40">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -8663,10 +10265,10 @@
         <v>67</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -8675,22 +10277,22 @@
         <v>2</v>
       </c>
       <c r="H41">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L41">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8701,7 +10303,7 @@
         <v>102</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -8710,22 +10312,22 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L42">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -8739,31 +10341,31 @@
         <v>96</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="I43">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -8891,7 +10493,7 @@
         <v>88</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -8900,22 +10502,22 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J47">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K47">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L47">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -8929,10 +10531,10 @@
         <v>105</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -8941,19 +10543,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J48">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K48">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L48">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -9005,31 +10607,31 @@
         <v>85</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="I50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J50">
         <v>33</v>
       </c>
       <c r="K50">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="L50">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -9081,31 +10683,31 @@
         <v>86</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="I52">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K52">
         <v>43</v>
       </c>
       <c r="L52">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -9233,10 +10835,10 @@
         <v>76</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -9245,19 +10847,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L56">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -9271,31 +10873,31 @@
         <v>109</v>
       </c>
       <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>4</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
       <c r="H57">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="I57">
         <v>12</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K57">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L57">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -9309,31 +10911,31 @@
         <v>77</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I58">
         <v>5</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -9344,7 +10946,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -9537,10 +11139,10 @@
         <v>87</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -9549,19 +11151,19 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="I64">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J64">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K64">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="L64">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -9575,7 +11177,7 @@
         <v>82</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -9584,25 +11186,25 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L65">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -9613,31 +11215,31 @@
         <v>95</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J66">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K66">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L66">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -9689,34 +11291,34 @@
         <v>118</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K68">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -9727,31 +11329,31 @@
         <v>117</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="I69">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J69">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K69">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L69">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -9762,7 +11364,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -9879,10 +11481,10 @@
         <v>91</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9891,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -9900,10 +11502,10 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -9914,7 +11516,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9990,7 +11592,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -10066,34 +11668,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -10107,7 +11709,7 @@
         <v>97</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -10116,22 +11718,22 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J79">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -10142,10 +11744,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -10154,22 +11756,22 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
+        <v>50</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+      <c r="J80">
+        <v>19</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
         <v>24</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>10</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>14</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -10256,7 +11858,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -10297,7 +11899,7 @@
         <v>100</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -10306,10 +11908,10 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I84">
         <v>6</v>
@@ -10318,10 +11920,10 @@
         <v>4</v>
       </c>
       <c r="K84">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -10373,31 +11975,31 @@
         <v>106</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J86">
         <v>3</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L86">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -10563,31 +12165,31 @@
         <v>111</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I91">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -10601,7 +12203,7 @@
         <v>113</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -10610,22 +12212,22 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L92">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -10750,7 +12352,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -10791,10 +12393,10 @@
         <v>124</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -10803,19 +12405,19 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L97">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -10970,6 +12572,234 @@
         <v>6</v>
       </c>
       <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>50</v>
+      </c>
+      <c r="I102">
+        <v>11</v>
+      </c>
+      <c r="J102">
+        <v>17</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>21</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>26</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <v>15</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>26</v>
+      </c>
+      <c r="I104">
+        <v>5</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>17</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>26</v>
+      </c>
+      <c r="I105">
+        <v>5</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>17</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>24</v>
+      </c>
+      <c r="I106">
+        <v>10</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>11</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>24</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>20</v>
+      </c>
+      <c r="M107">
         <v>0</v>
       </c>
     </row>

--- a/output/season_12.xlsx
+++ b/output/season_12.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -422,9 +422,37 @@
     <t>айнтрахт</t>
   </si>
   <si>
+    <t>эвертон</t>
+  </si>
+  <si>
+    <t>базель</t>
+  </si>
+  <si>
+    <t>паок</t>
+  </si>
+  <si>
+    <t>байер</t>
+  </si>
+  <si>
+    <t>башакшехир</t>
+  </si>
+  <si>
+    <t>зенит</t>
+  </si>
+  <si>
+    <t>цска</t>
+  </si>
+  <si>
     <t>галатасарай</t>
   </si>
   <si>
+    <t>сент
+этьен</t>
+  </si>
+  <si>
+    <t>динамо</t>
+  </si>
+  <si>
     <t>верона</t>
   </si>
   <si>
@@ -443,15 +471,6 @@
     <t>зальцбург</t>
   </si>
   <si>
-    <t>цска</t>
-  </si>
-  <si>
-    <t>базель</t>
-  </si>
-  <si>
-    <t>байер</t>
-  </si>
-  <si>
     <t>сочи</t>
   </si>
   <si>
@@ -467,7 +486,10 @@
     <t>фейеноорд</t>
   </si>
   <si>
-    <t>эвертон</t>
+    <t>серветт</t>
+  </si>
+  <si>
+    <t>спортинг</t>
   </si>
   <si>
     <t>bets</t>
@@ -896,31 +918,31 @@
         <v>10</v>
       </c>
       <c r="C2">
+        <v>293</v>
+      </c>
+      <c r="D2">
         <v>233</v>
       </c>
-      <c r="D2">
-        <v>187</v>
-      </c>
       <c r="E2">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -931,28 +953,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>13</v>
       </c>
       <c r="I3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -966,31 +988,31 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="D4">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="E4">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J4">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1036,28 +1058,28 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="D6">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F6">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1071,28 +1093,28 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="D7">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="E7">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F7">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J7">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1106,31 +1128,31 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="D8">
+        <v>267</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8">
         <v>202</v>
       </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>147</v>
-      </c>
       <c r="G8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J8">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1141,28 +1163,28 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="D9">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="G9">
         <v>19</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1176,28 +1198,28 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="D10">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F10">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1246,28 +1268,28 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="D12">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I12">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J12">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1281,28 +1303,28 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="D13">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="E13">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F13">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1316,31 +1338,31 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="D14">
+        <v>277</v>
+      </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+      <c r="F14">
         <v>207</v>
       </c>
-      <c r="E14">
-        <v>34</v>
-      </c>
-      <c r="F14">
-        <v>150</v>
-      </c>
       <c r="G14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I14">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J14">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1351,28 +1373,28 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>263</v>
+        <v>334</v>
       </c>
       <c r="D15">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15">
         <v>20</v>
       </c>
-      <c r="H15">
-        <v>16</v>
-      </c>
       <c r="I15">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J15">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1386,28 +1408,28 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="D16">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F16">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J16">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1421,31 +1443,31 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="D17">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="E17">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J17">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1456,31 +1478,31 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="D18">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I18">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J18">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1526,31 +1548,31 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="D20">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I20">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J20">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1561,28 +1583,28 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>280</v>
+        <v>343</v>
       </c>
       <c r="D21">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="E21">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I21">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J21">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1596,31 +1618,31 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="D22">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I22">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J22">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1631,28 +1653,28 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>278</v>
+        <v>373</v>
       </c>
       <c r="D23">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c r="E23">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F23">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J23">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1666,28 +1688,28 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="D24">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F24">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J24">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1701,28 +1723,28 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="D25">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="E25">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="G25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I25">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J25">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1736,28 +1758,28 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="D26">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J26">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1771,31 +1793,31 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="D27">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F27">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I27">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J27">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1806,28 +1828,28 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="D28">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F28">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I28">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J28">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1840,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2027,7 +2049,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2115,7 +2137,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2247,7 +2269,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2423,7 +2445,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2731,7 +2753,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3259,7 +3281,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3391,7 +3413,7 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3919,7 +3941,7 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4139,7 +4161,7 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4183,7 +4205,7 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4535,7 +4557,7 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4623,7 +4645,7 @@
         <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4843,7 +4865,7 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -6515,7 +6537,7 @@
         <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -6559,7 +6581,7 @@
         <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -6999,7 +7021,7 @@
         <v>130</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -7175,7 +7197,7 @@
         <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -7219,7 +7241,7 @@
         <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -7835,7 +7857,7 @@
         <v>77</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -7879,7 +7901,7 @@
         <v>113</v>
       </c>
       <c r="C138" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -8055,7 +8077,7 @@
         <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -8099,7 +8121,7 @@
         <v>58</v>
       </c>
       <c r="C143" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -8158,7 +8180,7 @@
         <v>15</v>
       </c>
       <c r="H144" s="2">
-        <v>44305.3295361453</v>
+        <v>44305.32953614584</v>
       </c>
       <c r="I144">
         <v>25</v>
@@ -8202,7 +8224,7 @@
         <v>15</v>
       </c>
       <c r="H145" s="2">
-        <v>44305.32953622564</v>
+        <v>44305.32953622685</v>
       </c>
       <c r="I145">
         <v>25</v>
@@ -8246,7 +8268,7 @@
         <v>15</v>
       </c>
       <c r="H146" s="2">
-        <v>44305.32953631814</v>
+        <v>44305.32953631944</v>
       </c>
       <c r="I146">
         <v>25</v>
@@ -8290,7 +8312,7 @@
         <v>15</v>
       </c>
       <c r="H147" s="2">
-        <v>44305.32953638757</v>
+        <v>44305.32953638889</v>
       </c>
       <c r="I147">
         <v>25</v>
@@ -8334,7 +8356,7 @@
         <v>15</v>
       </c>
       <c r="H148" s="2">
-        <v>44305.32953649113</v>
+        <v>44305.32953649305</v>
       </c>
       <c r="I148">
         <v>25</v>
@@ -8378,7 +8400,7 @@
         <v>15</v>
       </c>
       <c r="H149" s="2">
-        <v>44305.32953657224</v>
+        <v>44305.32953657407</v>
       </c>
       <c r="I149">
         <v>25</v>
@@ -8422,7 +8444,7 @@
         <v>15</v>
       </c>
       <c r="H150" s="2">
-        <v>44305.32953662999</v>
+        <v>44305.32953663194</v>
       </c>
       <c r="I150">
         <v>25</v>
@@ -8466,7 +8488,7 @@
         <v>15</v>
       </c>
       <c r="H151" s="2">
-        <v>44305.32953671081</v>
+        <v>44305.32953671296</v>
       </c>
       <c r="I151">
         <v>25</v>
@@ -8485,6 +8507,2514 @@
       </c>
       <c r="N151">
         <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>134</v>
+      </c>
+      <c r="C152" t="s">
+        <v>109</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>12</v>
+      </c>
+      <c r="G152">
+        <v>16</v>
+      </c>
+      <c r="H152" s="2">
+        <v>44342.39088203703</v>
+      </c>
+      <c r="I152">
+        <v>21</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>3</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" t="s">
+        <v>133</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>12</v>
+      </c>
+      <c r="G153">
+        <v>16</v>
+      </c>
+      <c r="H153" s="2">
+        <v>44342.39088211805</v>
+      </c>
+      <c r="I153">
+        <v>24</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>6</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" t="s">
+        <v>118</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>12</v>
+      </c>
+      <c r="G154">
+        <v>16</v>
+      </c>
+      <c r="H154" s="2">
+        <v>44342.39088219908</v>
+      </c>
+      <c r="I154">
+        <v>24</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>9</v>
+      </c>
+      <c r="L154">
+        <v>10</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>12</v>
+      </c>
+      <c r="G155">
+        <v>16</v>
+      </c>
+      <c r="H155" s="2">
+        <v>44342.39088226852</v>
+      </c>
+      <c r="I155">
+        <v>23</v>
+      </c>
+      <c r="J155">
+        <v>4</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>120</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>12</v>
+      </c>
+      <c r="G156">
+        <v>16</v>
+      </c>
+      <c r="H156" s="2">
+        <v>44342.39088234954</v>
+      </c>
+      <c r="I156">
+        <v>24</v>
+      </c>
+      <c r="J156">
+        <v>3</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>70</v>
+      </c>
+      <c r="C157" t="s">
+        <v>67</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>12</v>
+      </c>
+      <c r="G157">
+        <v>16</v>
+      </c>
+      <c r="H157" s="2">
+        <v>44342.39088241898</v>
+      </c>
+      <c r="I157">
+        <v>24</v>
+      </c>
+      <c r="J157">
+        <v>7</v>
+      </c>
+      <c r="K157">
+        <v>6</v>
+      </c>
+      <c r="L157">
+        <v>4</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>80</v>
+      </c>
+      <c r="C158" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>12</v>
+      </c>
+      <c r="G158">
+        <v>16</v>
+      </c>
+      <c r="H158" s="2">
+        <v>44342.3908825</v>
+      </c>
+      <c r="I158">
+        <v>24</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" t="s">
+        <v>155</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>12</v>
+      </c>
+      <c r="G159">
+        <v>16</v>
+      </c>
+      <c r="H159" s="2">
+        <v>44342.39088256945</v>
+      </c>
+      <c r="I159">
+        <v>24</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>11</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>136</v>
+      </c>
+      <c r="C160" t="s">
+        <v>108</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>12</v>
+      </c>
+      <c r="G160">
+        <v>16</v>
+      </c>
+      <c r="H160" s="2">
+        <v>44342.39088263889</v>
+      </c>
+      <c r="I160">
+        <v>24</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>6</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>12</v>
+      </c>
+      <c r="G161">
+        <v>16</v>
+      </c>
+      <c r="H161" s="2">
+        <v>44342.3908827199</v>
+      </c>
+      <c r="I161">
+        <v>24</v>
+      </c>
+      <c r="J161">
+        <v>5</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" t="s">
+        <v>102</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>12</v>
+      </c>
+      <c r="G162">
+        <v>17</v>
+      </c>
+      <c r="H162" s="2">
+        <v>44342.39201545139</v>
+      </c>
+      <c r="I162">
+        <v>24</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>3</v>
+      </c>
+      <c r="L162">
+        <v>10</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>73</v>
+      </c>
+      <c r="C163" t="s">
+        <v>50</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>12</v>
+      </c>
+      <c r="G163">
+        <v>17</v>
+      </c>
+      <c r="H163" s="2">
+        <v>44342.39201555555</v>
+      </c>
+      <c r="I163">
+        <v>24</v>
+      </c>
+      <c r="J163">
+        <v>11</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>137</v>
+      </c>
+      <c r="C164" t="s">
+        <v>133</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>12</v>
+      </c>
+      <c r="G164">
+        <v>17</v>
+      </c>
+      <c r="H164" s="2">
+        <v>44342.39201564815</v>
+      </c>
+      <c r="I164">
+        <v>24</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>8</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165" t="s">
+        <v>77</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>12</v>
+      </c>
+      <c r="G165">
+        <v>17</v>
+      </c>
+      <c r="H165" s="2">
+        <v>44342.39201574074</v>
+      </c>
+      <c r="I165">
+        <v>24</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>8</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166" t="s">
+        <v>74</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>12</v>
+      </c>
+      <c r="G166">
+        <v>17</v>
+      </c>
+      <c r="H166" s="2">
+        <v>44342.39201582176</v>
+      </c>
+      <c r="I166">
+        <v>24</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>7</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" t="s">
+        <v>140</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>12</v>
+      </c>
+      <c r="G167">
+        <v>17</v>
+      </c>
+      <c r="H167" s="2">
+        <v>44342.39201590278</v>
+      </c>
+      <c r="I167">
+        <v>24</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>10</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>12</v>
+      </c>
+      <c r="G168">
+        <v>17</v>
+      </c>
+      <c r="H168" s="2">
+        <v>44342.39201597223</v>
+      </c>
+      <c r="I168">
+        <v>24</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>3</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169" t="s">
+        <v>156</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>12</v>
+      </c>
+      <c r="G169">
+        <v>17</v>
+      </c>
+      <c r="H169" s="2">
+        <v>44342.39201604167</v>
+      </c>
+      <c r="I169">
+        <v>24</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>7</v>
+      </c>
+      <c r="L169">
+        <v>5</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" t="s">
+        <v>72</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170">
+        <v>12</v>
+      </c>
+      <c r="G170">
+        <v>17</v>
+      </c>
+      <c r="H170" s="2">
+        <v>44342.39201611111</v>
+      </c>
+      <c r="I170">
+        <v>24</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170">
+        <v>3</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171" t="s">
+        <v>79</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>12</v>
+      </c>
+      <c r="G171">
+        <v>17</v>
+      </c>
+      <c r="H171" s="2">
+        <v>44342.39201618056</v>
+      </c>
+      <c r="I171">
+        <v>24</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>5</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>12</v>
+      </c>
+      <c r="G172">
+        <v>18</v>
+      </c>
+      <c r="H172" s="2">
+        <v>44342.39281185185</v>
+      </c>
+      <c r="I172">
+        <v>24</v>
+      </c>
+      <c r="J172">
+        <v>4</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>104</v>
+      </c>
+      <c r="C173" t="s">
+        <v>116</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>12</v>
+      </c>
+      <c r="G173">
+        <v>18</v>
+      </c>
+      <c r="H173" s="2">
+        <v>44342.39281193287</v>
+      </c>
+      <c r="I173">
+        <v>24</v>
+      </c>
+      <c r="J173">
+        <v>9</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" t="s">
+        <v>85</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>12</v>
+      </c>
+      <c r="G174">
+        <v>18</v>
+      </c>
+      <c r="H174" s="2">
+        <v>44342.39281203704</v>
+      </c>
+      <c r="I174">
+        <v>24</v>
+      </c>
+      <c r="J174">
+        <v>7</v>
+      </c>
+      <c r="K174">
+        <v>3</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>105</v>
+      </c>
+      <c r="C175" t="s">
+        <v>96</v>
+      </c>
+      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>12</v>
+      </c>
+      <c r="G175">
+        <v>18</v>
+      </c>
+      <c r="H175" s="2">
+        <v>44342.39281210648</v>
+      </c>
+      <c r="I175">
+        <v>24</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>23</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176" t="s">
+        <v>143</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>12</v>
+      </c>
+      <c r="G176">
+        <v>18</v>
+      </c>
+      <c r="H176" s="2">
+        <v>44342.39281219908</v>
+      </c>
+      <c r="I176">
+        <v>21</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>9</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>58</v>
+      </c>
+      <c r="C177" t="s">
+        <v>152</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>12</v>
+      </c>
+      <c r="G177">
+        <v>18</v>
+      </c>
+      <c r="H177" s="2">
+        <v>44342.39281228009</v>
+      </c>
+      <c r="I177">
+        <v>22</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>7</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>69</v>
+      </c>
+      <c r="C178" t="s">
+        <v>150</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="F178">
+        <v>12</v>
+      </c>
+      <c r="G178">
+        <v>18</v>
+      </c>
+      <c r="H178" s="2">
+        <v>44342.39281236111</v>
+      </c>
+      <c r="I178">
+        <v>23</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>5</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>121</v>
+      </c>
+      <c r="C179" t="s">
+        <v>125</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>12</v>
+      </c>
+      <c r="G179">
+        <v>18</v>
+      </c>
+      <c r="H179" s="2">
+        <v>44342.39281243055</v>
+      </c>
+      <c r="I179">
+        <v>23</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>15</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" t="s">
+        <v>142</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>12</v>
+      </c>
+      <c r="G180">
+        <v>18</v>
+      </c>
+      <c r="H180" s="2">
+        <v>44342.3928125</v>
+      </c>
+      <c r="I180">
+        <v>23</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181" t="s">
+        <v>91</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>12</v>
+      </c>
+      <c r="G181">
+        <v>18</v>
+      </c>
+      <c r="H181" s="2">
+        <v>44342.39281258102</v>
+      </c>
+      <c r="I181">
+        <v>23</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>18</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>61</v>
+      </c>
+      <c r="C182" t="s">
+        <v>96</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>12</v>
+      </c>
+      <c r="G182">
+        <v>18</v>
+      </c>
+      <c r="H182" s="2">
+        <v>44342.39281263889</v>
+      </c>
+      <c r="I182">
+        <v>23</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>4</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>115</v>
+      </c>
+      <c r="C183" t="s">
+        <v>129</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183">
+        <v>12</v>
+      </c>
+      <c r="G183">
+        <v>18</v>
+      </c>
+      <c r="H183" s="2">
+        <v>44342.39281270833</v>
+      </c>
+      <c r="I183">
+        <v>23</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" t="s">
+        <v>146</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>12</v>
+      </c>
+      <c r="G184">
+        <v>18</v>
+      </c>
+      <c r="H184" s="2">
+        <v>44342.39281277778</v>
+      </c>
+      <c r="I184">
+        <v>23</v>
+      </c>
+      <c r="J184">
+        <v>4</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185" t="s">
+        <v>104</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>12</v>
+      </c>
+      <c r="G185">
+        <v>19</v>
+      </c>
+      <c r="H185" s="2">
+        <v>44342.39346674769</v>
+      </c>
+      <c r="I185">
+        <v>20</v>
+      </c>
+      <c r="J185">
+        <v>3</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>10</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>95</v>
+      </c>
+      <c r="C186" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>12</v>
+      </c>
+      <c r="G186">
+        <v>19</v>
+      </c>
+      <c r="H186" s="2">
+        <v>44342.39346684028</v>
+      </c>
+      <c r="I186">
+        <v>22</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>10</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>85</v>
+      </c>
+      <c r="C187" t="s">
+        <v>87</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>12</v>
+      </c>
+      <c r="G187">
+        <v>19</v>
+      </c>
+      <c r="H187" s="2">
+        <v>44342.39346693287</v>
+      </c>
+      <c r="I187">
+        <v>22</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>4</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>96</v>
+      </c>
+      <c r="C188" t="s">
+        <v>105</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>12</v>
+      </c>
+      <c r="G188">
+        <v>19</v>
+      </c>
+      <c r="H188" s="2">
+        <v>44342.39346702546</v>
+      </c>
+      <c r="I188">
+        <v>22</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>102</v>
+      </c>
+      <c r="C189" t="s">
+        <v>65</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>12</v>
+      </c>
+      <c r="G189">
+        <v>19</v>
+      </c>
+      <c r="H189" s="2">
+        <v>44342.39346710648</v>
+      </c>
+      <c r="I189">
+        <v>21</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>12</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>91</v>
+      </c>
+      <c r="C190" t="s">
+        <v>110</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>12</v>
+      </c>
+      <c r="G190">
+        <v>19</v>
+      </c>
+      <c r="H190" s="2">
+        <v>44342.3934671875</v>
+      </c>
+      <c r="I190">
+        <v>21</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>64</v>
+      </c>
+      <c r="C191" t="s">
+        <v>82</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>12</v>
+      </c>
+      <c r="G191">
+        <v>19</v>
+      </c>
+      <c r="H191" s="2">
+        <v>44342.39346725694</v>
+      </c>
+      <c r="I191">
+        <v>22</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>6</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>116</v>
+      </c>
+      <c r="C192" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>12</v>
+      </c>
+      <c r="G192">
+        <v>19</v>
+      </c>
+      <c r="H192" s="2">
+        <v>44342.39346732639</v>
+      </c>
+      <c r="I192">
+        <v>23</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>140</v>
+      </c>
+      <c r="C193" t="s">
+        <v>69</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>12</v>
+      </c>
+      <c r="G193">
+        <v>19</v>
+      </c>
+      <c r="H193" s="2">
+        <v>44342.39346739584</v>
+      </c>
+      <c r="I193">
+        <v>23</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>11</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>141</v>
+      </c>
+      <c r="C194" t="s">
+        <v>127</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>12</v>
+      </c>
+      <c r="G194">
+        <v>19</v>
+      </c>
+      <c r="H194" s="2">
+        <v>44342.39346746528</v>
+      </c>
+      <c r="I194">
+        <v>23</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>142</v>
+      </c>
+      <c r="C195" t="s">
+        <v>147</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>12</v>
+      </c>
+      <c r="G195">
+        <v>19</v>
+      </c>
+      <c r="H195" s="2">
+        <v>44342.39346752315</v>
+      </c>
+      <c r="I195">
+        <v>23</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>76</v>
+      </c>
+      <c r="C196" t="s">
+        <v>134</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>12</v>
+      </c>
+      <c r="G196">
+        <v>19</v>
+      </c>
+      <c r="H196" s="2">
+        <v>44342.39346759259</v>
+      </c>
+      <c r="I196">
+        <v>23</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>103</v>
+      </c>
+      <c r="C197" t="s">
+        <v>79</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <v>12</v>
+      </c>
+      <c r="G197">
+        <v>19</v>
+      </c>
+      <c r="H197" s="2">
+        <v>44342.39346765047</v>
+      </c>
+      <c r="I197">
+        <v>23</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>117</v>
+      </c>
+      <c r="C198" t="s">
+        <v>67</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>12</v>
+      </c>
+      <c r="G198">
+        <v>19</v>
+      </c>
+      <c r="H198" s="2">
+        <v>44342.39346771991</v>
+      </c>
+      <c r="I198">
+        <v>23</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>105</v>
+      </c>
+      <c r="C199" t="s">
+        <v>51</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
+      <c r="F199">
+        <v>12</v>
+      </c>
+      <c r="G199">
+        <v>20</v>
+      </c>
+      <c r="H199" s="2">
+        <v>44342.39474509046</v>
+      </c>
+      <c r="I199">
+        <v>20</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>11</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="s">
+        <v>101</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>12</v>
+      </c>
+      <c r="G200">
+        <v>20</v>
+      </c>
+      <c r="H200" s="2">
+        <v>44342.39474517126</v>
+      </c>
+      <c r="I200">
+        <v>24</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>7</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>71</v>
+      </c>
+      <c r="C201" t="s">
+        <v>156</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201">
+        <v>12</v>
+      </c>
+      <c r="G201">
+        <v>20</v>
+      </c>
+      <c r="H201" s="2">
+        <v>44342.39474526362</v>
+      </c>
+      <c r="I201">
+        <v>24</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>8</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>96</v>
+      </c>
+      <c r="C202" t="s">
+        <v>83</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>12</v>
+      </c>
+      <c r="G202">
+        <v>20</v>
+      </c>
+      <c r="H202" s="2">
+        <v>44342.39474536757</v>
+      </c>
+      <c r="I202">
+        <v>24</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>6</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>58</v>
+      </c>
+      <c r="C203" t="s">
+        <v>76</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>12</v>
+      </c>
+      <c r="G203">
+        <v>20</v>
+      </c>
+      <c r="H203" s="2">
+        <v>44342.3947454483</v>
+      </c>
+      <c r="I203">
+        <v>24</v>
+      </c>
+      <c r="J203">
+        <v>7</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>143</v>
+      </c>
+      <c r="C204" t="s">
+        <v>140</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>12</v>
+      </c>
+      <c r="G204">
+        <v>20</v>
+      </c>
+      <c r="H204" s="2">
+        <v>44342.39474552911</v>
+      </c>
+      <c r="I204">
+        <v>24</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>5</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>97</v>
+      </c>
+      <c r="C205" t="s">
+        <v>69</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="F205">
+        <v>12</v>
+      </c>
+      <c r="G205">
+        <v>20</v>
+      </c>
+      <c r="H205" s="2">
+        <v>44342.39474559856</v>
+      </c>
+      <c r="I205">
+        <v>24</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>5</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>87</v>
+      </c>
+      <c r="C206" t="s">
+        <v>67</v>
+      </c>
+      <c r="D206">
+        <v>4</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>12</v>
+      </c>
+      <c r="G206">
+        <v>20</v>
+      </c>
+      <c r="H206" s="2">
+        <v>44342.39474566763</v>
+      </c>
+      <c r="I206">
+        <v>24</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>65</v>
+      </c>
+      <c r="C207" t="s">
+        <v>62</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>12</v>
+      </c>
+      <c r="G207">
+        <v>20</v>
+      </c>
+      <c r="H207" s="2">
+        <v>44342.39474573688</v>
+      </c>
+      <c r="I207">
+        <v>24</v>
+      </c>
+      <c r="J207">
+        <v>2</v>
+      </c>
+      <c r="K207">
+        <v>3</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>95</v>
+      </c>
+      <c r="C208" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>12</v>
+      </c>
+      <c r="G208">
+        <v>20</v>
+      </c>
+      <c r="H208" s="2">
+        <v>44342.39474580614</v>
+      </c>
+      <c r="I208">
+        <v>24</v>
+      </c>
+      <c r="J208">
+        <v>9</v>
+      </c>
+      <c r="K208">
+        <v>3</v>
+      </c>
+      <c r="L208">
+        <v>7</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8505,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8731,7 +11261,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8739,22 +11269,22 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -8859,22 +11389,22 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -8883,7 +11413,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -8897,10 +11427,10 @@
         <v>93</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -8909,19 +11439,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -9046,13 +11576,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9061,19 +11591,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -9125,7 +11655,7 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -9134,22 +11664,22 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -9198,7 +11728,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -9239,22 +11769,22 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="I14">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -9263,7 +11793,7 @@
         <v>35</v>
       </c>
       <c r="L14">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -9277,7 +11807,7 @@
         <v>133</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -9286,25 +11816,25 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -9315,10 +11845,10 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -9327,19 +11857,19 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -9353,34 +11883,34 @@
         <v>116</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="I17">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K17">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -9426,7 +11956,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -9467,7 +11997,7 @@
         <v>53</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -9476,25 +12006,25 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -9581,22 +12111,22 @@
         <v>73</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -9605,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -9619,7 +12149,7 @@
         <v>56</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -9628,22 +12158,22 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
+        <v>76</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
         <v>53</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>8</v>
-      </c>
-      <c r="L24">
-        <v>39</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -9654,25 +12184,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -9681,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -9695,31 +12225,31 @@
         <v>57</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K26">
         <v>22</v>
       </c>
       <c r="L26">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M26">
         <v>2</v>
@@ -9733,34 +12263,34 @@
         <v>103</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K27">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -9771,31 +12301,31 @@
         <v>58</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J28">
         <v>19</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L28">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -9885,7 +12415,7 @@
         <v>70</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -9894,22 +12424,22 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K31">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -9923,10 +12453,10 @@
         <v>61</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -9935,22 +12465,22 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -9999,34 +12529,34 @@
         <v>62</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L34">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10037,10 +12567,10 @@
         <v>84</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -10049,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="H35">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="I35">
         <v>17</v>
@@ -10058,10 +12588,10 @@
         <v>20</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -10110,10 +12640,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -10122,22 +12652,22 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -10151,31 +12681,31 @@
         <v>64</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K38">
         <v>18</v>
       </c>
       <c r="L38">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -10189,7 +12719,7 @@
         <v>104</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -10198,22 +12728,22 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J39">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K39">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L39">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -10227,34 +12757,34 @@
         <v>65</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="K40">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L40">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -10265,31 +12795,31 @@
         <v>67</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K41">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L41">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -10303,10 +12833,10 @@
         <v>102</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -10315,22 +12845,22 @@
         <v>2</v>
       </c>
       <c r="H42">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="I42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J42">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="K42">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L42">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -10341,34 +12871,34 @@
         <v>96</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>4</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
       <c r="H43">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="I43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L43">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -10379,10 +12909,10 @@
         <v>68</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -10391,19 +12921,19 @@
         <v>2</v>
       </c>
       <c r="H44">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="I44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K44">
         <v>40</v>
       </c>
       <c r="L44">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="M44">
         <v>2</v>
@@ -10455,34 +12985,34 @@
         <v>69</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K46">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -10531,31 +13061,31 @@
         <v>105</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="I48">
         <v>26</v>
       </c>
       <c r="J48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K48">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L48">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -10569,10 +13099,10 @@
         <v>71</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -10581,19 +13111,19 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I49">
         <v>7</v>
       </c>
       <c r="J49">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -10607,31 +13137,31 @@
         <v>85</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="I50">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J50">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K50">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L50">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -10645,10 +13175,10 @@
         <v>72</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -10657,19 +13187,19 @@
         <v>2</v>
       </c>
       <c r="H51">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I51">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J51">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -10721,31 +13251,31 @@
         <v>74</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -10835,31 +13365,31 @@
         <v>76</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J56">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L56">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -10873,31 +13403,31 @@
         <v>109</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>4</v>
       </c>
       <c r="H57">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="I57">
         <v>12</v>
       </c>
       <c r="J57">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K57">
         <v>24</v>
       </c>
       <c r="L57">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -10911,7 +13441,7 @@
         <v>77</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -10920,25 +13450,25 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J58">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -10946,7 +13476,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -10987,19 +13517,19 @@
         <v>79</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="I60">
         <v>9</v>
@@ -11008,10 +13538,10 @@
         <v>26</v>
       </c>
       <c r="K60">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L60">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -11025,31 +13555,31 @@
         <v>101</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J61">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K61">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -11063,34 +13593,34 @@
         <v>80</v>
       </c>
       <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>127</v>
+      </c>
+      <c r="I62">
         <v>4</v>
       </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>3</v>
-      </c>
-      <c r="H62">
-        <v>103</v>
-      </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
       <c r="J62">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K62">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L62">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -11139,31 +13669,31 @@
         <v>87</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="I64">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J64">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K64">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L64">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -11177,31 +13707,31 @@
         <v>82</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I65">
         <v>10</v>
       </c>
       <c r="J65">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K65">
         <v>12</v>
       </c>
       <c r="L65">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="M65">
         <v>3</v>
@@ -11215,34 +13745,34 @@
         <v>95</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J66">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K66">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="L66">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -11253,19 +13783,19 @@
         <v>83</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -11274,10 +13804,10 @@
         <v>2</v>
       </c>
       <c r="K67">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -11291,11 +13821,11 @@
         <v>118</v>
       </c>
       <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
         <v>5</v>
       </c>
-      <c r="E68">
-        <v>4</v>
-      </c>
       <c r="F68">
         <v>0</v>
       </c>
@@ -11303,19 +13833,19 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="I68">
         <v>3</v>
       </c>
       <c r="J68">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K68">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L68">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M68">
         <v>3</v>
@@ -11329,34 +13859,34 @@
         <v>117</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E69">
         <v>4</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="I69">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J69">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K69">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L69">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -11364,7 +13894,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -11443,7 +13973,7 @@
         <v>108</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -11452,10 +13982,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="I72">
         <v>12</v>
@@ -11464,10 +13994,10 @@
         <v>5</v>
       </c>
       <c r="K72">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L72">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -11481,31 +14011,31 @@
         <v>91</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L73">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -11516,37 +14046,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K74">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -11592,13 +14122,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -11607,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -11616,10 +14146,10 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -11668,13 +14198,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -11683,22 +14213,22 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>12</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L78">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -11709,7 +14239,7 @@
         <v>97</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -11718,22 +14248,22 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I79">
         <v>5</v>
       </c>
       <c r="J79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L79">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -11744,13 +14274,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -11759,19 +14289,19 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I80">
         <v>6</v>
       </c>
       <c r="J80">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -11858,7 +14388,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -11899,10 +14429,10 @@
         <v>100</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -11911,22 +14441,22 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J84">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K84">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L84">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -12013,10 +14543,10 @@
         <v>121</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -12025,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="I87">
         <v>14</v>
@@ -12034,10 +14564,10 @@
         <v>4</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L87">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -12089,7 +14619,7 @@
         <v>120</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -12098,22 +14628,22 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K89">
         <v>22</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -12127,31 +14657,31 @@
         <v>110</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I90">
         <v>6</v>
       </c>
       <c r="J90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K90">
         <v>2</v>
       </c>
       <c r="L90">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -12279,7 +14809,7 @@
         <v>115</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -12288,22 +14818,22 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -12352,10 +14882,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -12364,10 +14894,10 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I96">
         <v>5</v>
@@ -12376,10 +14906,10 @@
         <v>2</v>
       </c>
       <c r="K96">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L96">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -12393,10 +14923,10 @@
         <v>124</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -12405,19 +14935,19 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I97">
         <v>5</v>
       </c>
       <c r="J97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L97">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -12431,7 +14961,7 @@
         <v>125</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -12440,10 +14970,10 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I98">
         <v>8</v>
@@ -12452,10 +14982,10 @@
         <v>1</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L98">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -12507,7 +15037,7 @@
         <v>127</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -12516,22 +15046,22 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I100">
         <v>3</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -12545,31 +15075,31 @@
         <v>129</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L101">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -12583,34 +15113,34 @@
         <v>130</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I102">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J102">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L102">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -12694,7 +15224,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -12732,7 +15262,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -12770,36 +15300,302 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
+        <v>68</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>9</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>58</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>155</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
         <v>24</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>4</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>20</v>
-      </c>
-      <c r="M107">
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>11</v>
+      </c>
+      <c r="L108">
+        <v>13</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+      <c r="L109">
+        <v>18</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>24</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>17</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>48</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>15</v>
+      </c>
+      <c r="K111">
+        <v>8</v>
+      </c>
+      <c r="L111">
+        <v>24</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>45</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>9</v>
+      </c>
+      <c r="L112">
+        <v>31</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>46</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>41</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>23</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>18</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
         <v>0</v>
       </c>
     </row>
